--- a/data/book_record.xlsx
+++ b/data/book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>title</t>
   </si>
@@ -1409,6 +1409,12 @@
   </si>
   <si>
     <t>JG Ballard</t>
+  </si>
+  <si>
+    <t>Hammajang Luck</t>
+  </si>
+  <si>
+    <t>Makana Yamamoto</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8809,6 +8815,36 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="204" ht="13.55" customHeight="1">
+      <c r="A204" t="s" s="5">
+        <v>466</v>
+      </c>
+      <c r="B204" t="s" s="5">
+        <v>467</v>
+      </c>
+      <c r="C204" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="E204" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G204" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I204" s="7"/>
+      <c r="J204" s="6">
+        <v>2026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
